--- a/results/I3_N5_M2_T30_C200_DepCentral_s1_mean_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepCentral_s1_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>390.3385864902916</v>
+        <v>23.95968639016486</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3519999980926514</v>
+        <v>0.04200005531311035</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.58858649131692</v>
+        <v>23.95968639016486</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>200.9999999989746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>159.75</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>26.23964284834943</v>
       </c>
     </row>
     <row r="4">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23.75054662682647</v>
+        <v>22.48909622152295</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.720264823079315</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>128.4420000000023</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4">
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>131.2909999998683</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>214.1379999998171</v>
+        <v>110.6</v>
       </c>
     </row>
     <row r="6">
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>205.9620000000412</v>
+        <v>109.8</v>
       </c>
     </row>
     <row r="7">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>83.34899999997282</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>214.1379999998125</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>205.9620000000866</v>
+        <v>110.6</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>14.13799999981146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1123,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>5.962000000086</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>15.975</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1228,7 +1228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1253,28 +1253,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
